--- a/图书管理系统.xlsx
+++ b/图书管理系统.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11940" windowHeight="2805" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="任务" sheetId="1" r:id="rId1"/>
     <sheet name="代办池" sheetId="2" r:id="rId2"/>
-    <sheet name="用鑫融生产问题" sheetId="3" r:id="rId3"/>
+    <sheet name="每日待办" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,18 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.手机号未实名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.去授权，手机号不正确，然后按钮置灰了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.24小时过期订单问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,6 +171,22 @@
   </si>
   <si>
     <t>引入mongo 录入操作日志到数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -226,12 +230,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -537,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -608,7 +615,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -620,7 +627,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -629,7 +636,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -638,7 +648,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -647,7 +657,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -656,7 +666,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -689,7 +702,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6736,28 +6749,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="54.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>34</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>44034</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B3" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
